--- a/2 vsStudio_P/210408_cSharp_basic_chap5/회차별 1등번호.xlsx
+++ b/2 vsStudio_P/210408_cSharp_basic_chap5/회차별 1등번호.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\임시\Git\jhy0409\2 vsStudio_P\210408_cSharp_basic\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="10320" activeTab="2"/>
   </bookViews>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'번호순1~957회차'!$A$1:$C$46</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="204">
   <si>
     <t>회차</t>
   </si>
@@ -570,12 +565,78 @@
   </si>
   <si>
     <t>당첨횟수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -733,7 +794,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -768,7 +829,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2336,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2364,11 +2425,10 @@
         <v>174</v>
       </c>
       <c r="E2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F2" t="str">
-        <f>E2&amp;","</f>
-        <v>9.3,</v>
+        <v>0.93000000000000016</v>
+      </c>
+      <c r="F2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2382,11 +2442,10 @@
         <v>166</v>
       </c>
       <c r="E3">
-        <v>8.7000000000000011</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F46" si="0">E3&amp;","</f>
-        <v>8.7,</v>
+        <v>0.87000000000000011</v>
+      </c>
+      <c r="F3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2400,11 +2459,10 @@
         <v>164</v>
       </c>
       <c r="E4">
-        <v>8.7000000000000011</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>8.7,</v>
+        <v>0.87000000000000011</v>
+      </c>
+      <c r="F4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2418,11 +2476,10 @@
         <v>161</v>
       </c>
       <c r="E5">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>9.3,</v>
+        <v>0.93000000000000016</v>
+      </c>
+      <c r="F5" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2436,11 +2493,10 @@
         <v>161</v>
       </c>
       <c r="E6">
-        <v>8.4</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>8.4,</v>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2454,11 +2510,10 @@
         <v>161</v>
       </c>
       <c r="E7">
-        <v>8.4</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>8.4,</v>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F7" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2472,11 +2527,10 @@
         <v>162</v>
       </c>
       <c r="E8">
-        <v>8.4</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>8.4,</v>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2490,11 +2544,10 @@
         <v>160</v>
       </c>
       <c r="E9">
-        <v>8.4</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>8.4,</v>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2508,11 +2561,10 @@
         <v>159</v>
       </c>
       <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>7,</v>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="F10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2526,11 +2578,10 @@
         <v>158</v>
       </c>
       <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>9,</v>
+        <v>0.9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2544,11 +2595,10 @@
         <v>156</v>
       </c>
       <c r="E12">
-        <v>8.6</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>8.6,</v>
+        <v>0.86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2562,11 +2612,10 @@
         <v>157</v>
       </c>
       <c r="E13">
-        <v>9.2000000000000011</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>9.2,</v>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="F13" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2580,11 +2629,10 @@
         <v>154</v>
       </c>
       <c r="E14">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>9.3,</v>
+        <v>0.93000000000000016</v>
+      </c>
+      <c r="F14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2598,11 +2646,10 @@
         <v>154</v>
       </c>
       <c r="E15">
-        <v>8.7000000000000011</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>8.7,</v>
+        <v>0.87000000000000011</v>
+      </c>
+      <c r="F15" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2616,11 +2663,10 @@
         <v>155</v>
       </c>
       <c r="E16">
-        <v>8.4</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>8.4,</v>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F16" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2634,11 +2680,10 @@
         <v>153</v>
       </c>
       <c r="E17">
-        <v>8.4</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>8.4,</v>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F17" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2652,11 +2697,10 @@
         <v>151</v>
       </c>
       <c r="E18">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>9.3,</v>
+        <v>0.93000000000000016</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2670,11 +2714,10 @@
         <v>151</v>
       </c>
       <c r="E19">
-        <v>8.9</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>8.9,</v>
+        <v>0.89000000000000012</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2688,11 +2731,10 @@
         <v>152</v>
       </c>
       <c r="E20">
-        <v>8.5</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>8.5,</v>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2706,11 +2748,10 @@
         <v>151</v>
       </c>
       <c r="E21">
-        <v>9</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>9,</v>
+        <v>0.9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2724,11 +2765,10 @@
         <v>150</v>
       </c>
       <c r="E22">
-        <v>8.5</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>8.5,</v>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2742,11 +2782,10 @@
         <v>149</v>
       </c>
       <c r="E23">
-        <v>7.1000000000000005</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>7.1,</v>
+        <v>0.71000000000000008</v>
+      </c>
+      <c r="F23" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2760,11 +2799,10 @@
         <v>150</v>
       </c>
       <c r="E24">
-        <v>7.5</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>7.5,</v>
+        <v>0.75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2778,11 +2816,10 @@
         <v>148</v>
       </c>
       <c r="E25">
-        <v>8.6</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>8.6,</v>
+        <v>0.86</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2796,11 +2833,10 @@
         <v>148</v>
       </c>
       <c r="E26">
-        <v>8</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>8,</v>
+        <v>0.8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2814,11 +2850,10 @@
         <v>148</v>
       </c>
       <c r="E27">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>8.8,</v>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="F27" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2832,11 +2867,10 @@
         <v>146</v>
       </c>
       <c r="E28">
-        <v>9.5</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>9.5,</v>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="F28" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2850,11 +2884,10 @@
         <v>146</v>
       </c>
       <c r="E29">
-        <v>7.7</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>7.7,</v>
+        <v>0.77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2868,11 +2901,10 @@
         <v>147</v>
       </c>
       <c r="E30">
-        <v>7.4</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>7.4,</v>
+        <v>0.7400000000000001</v>
+      </c>
+      <c r="F30" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2886,11 +2918,10 @@
         <v>147</v>
       </c>
       <c r="E31">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>8.3,</v>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="F31" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2904,11 +2935,10 @@
         <v>146</v>
       </c>
       <c r="E32">
-        <v>8.7000000000000011</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>8.7,</v>
+        <v>0.87000000000000011</v>
+      </c>
+      <c r="F32" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2922,11 +2952,10 @@
         <v>147</v>
       </c>
       <c r="E33">
-        <v>7.7</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>7.7,</v>
+        <v>0.77</v>
+      </c>
+      <c r="F33" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2940,11 +2969,10 @@
         <v>146</v>
       </c>
       <c r="E34">
-        <v>9.1</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>9.1,</v>
+        <v>0.91</v>
+      </c>
+      <c r="F34" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2958,11 +2986,10 @@
         <v>144</v>
       </c>
       <c r="E35">
-        <v>9.4</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>9.4,</v>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="F35" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2976,11 +3003,10 @@
         <v>145</v>
       </c>
       <c r="E36">
-        <v>8.2000000000000011</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>8.2,</v>
+        <v>0.82000000000000017</v>
+      </c>
+      <c r="F36" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2994,11 +3020,10 @@
         <v>144</v>
       </c>
       <c r="E37">
-        <v>8.4</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>8.4,</v>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F37" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -3012,11 +3037,10 @@
         <v>143</v>
       </c>
       <c r="E38">
-        <v>8.6</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>8.6,</v>
+        <v>0.86</v>
+      </c>
+      <c r="F38" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -3030,11 +3054,10 @@
         <v>140</v>
       </c>
       <c r="E39">
-        <v>8.9</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>8.9,</v>
+        <v>0.89000000000000012</v>
+      </c>
+      <c r="F39" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -3048,11 +3071,10 @@
         <v>134</v>
       </c>
       <c r="E40">
-        <v>9.1</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>9.1,</v>
+        <v>0.91</v>
+      </c>
+      <c r="F40" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -3066,11 +3088,10 @@
         <v>134</v>
       </c>
       <c r="E41">
-        <v>8.9</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>8.9,</v>
+        <v>0.89000000000000012</v>
+      </c>
+      <c r="F41" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -3084,11 +3105,10 @@
         <v>132</v>
       </c>
       <c r="E42">
-        <v>7.6000000000000005</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>7.6,</v>
+        <v>0.76000000000000012</v>
+      </c>
+      <c r="F42" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -3102,11 +3122,10 @@
         <v>131</v>
       </c>
       <c r="E43">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>8.3,</v>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="F43" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -3120,11 +3139,10 @@
         <v>128</v>
       </c>
       <c r="E44">
-        <v>10</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>10,</v>
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -3138,11 +3156,10 @@
         <v>124</v>
       </c>
       <c r="E45">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>8.3,</v>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="F45" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -3156,11 +3173,10 @@
         <v>122</v>
       </c>
       <c r="E46">
-        <v>8.5</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>8.5,</v>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F46">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
